--- a/data/trans_orig/P2A_senso_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>34503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24849</v>
+        <v>23913</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46167</v>
+        <v>46296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03344224728833028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02408536084207539</v>
+        <v>0.02317802192592613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04474746196080756</v>
+        <v>0.04487295953328017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>34316</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23498</v>
+        <v>23692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46681</v>
+        <v>47271</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02609346063734345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01786779387296866</v>
+        <v>0.01801516763092798</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03549579088701618</v>
+        <v>0.03594461509480222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>68819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54988</v>
+        <v>54171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86700</v>
+        <v>86986</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02932415623759922</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02343067341674436</v>
+        <v>0.02308266561378307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03694332763248557</v>
+        <v>0.03706530874124168</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>997220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>985556</v>
+        <v>985427</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1006874</v>
+        <v>1007810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9665577527116698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9552525380391929</v>
+        <v>0.9551270404667198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9759146391579248</v>
+        <v>0.9768219780740739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1258</v>
@@ -836,19 +836,19 @@
         <v>1280797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1268432</v>
+        <v>1267842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1291615</v>
+        <v>1291421</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9739065393626566</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9645042091129837</v>
+        <v>0.9640553849051974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9821322061270306</v>
+        <v>0.981984832369072</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2261</v>
@@ -857,19 +857,19 @@
         <v>2278016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2260135</v>
+        <v>2259849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2291847</v>
+        <v>2292664</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9706758437624008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9630566723675145</v>
+        <v>0.9629346912587583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9765693265832557</v>
+        <v>0.9769173343862169</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6625</v>
+        <v>6600</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20644</v>
+        <v>20475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007180480885976242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003912251096260041</v>
+        <v>0.003897360032987588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01219049999509543</v>
+        <v>0.01209067440991841</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>16738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10011</v>
+        <v>9838</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26632</v>
+        <v>26330</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01054256626254642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006305391124747359</v>
+        <v>0.006196463483598646</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01677393589038877</v>
+        <v>0.01658430067726569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1003,19 +1003,19 @@
         <v>28898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19185</v>
+        <v>19564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41806</v>
+        <v>42316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008807348632585501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005847157447647749</v>
+        <v>0.005962543359973152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01274164630581481</v>
+        <v>0.01289687281148936</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1681253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1672769</v>
+        <v>1672938</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1686788</v>
+        <v>1686813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9928195191140238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9878095000049042</v>
+        <v>0.9879093255900816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9960877489037399</v>
+        <v>0.9961026399670124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1538</v>
@@ -1053,19 +1053,19 @@
         <v>1570935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1561041</v>
+        <v>1561343</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1577662</v>
+        <v>1577835</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9894574337374535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9832260641096112</v>
+        <v>0.9834156993227346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9936946088752526</v>
+        <v>0.9938035365164014</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3175</v>
@@ -1074,19 +1074,19 @@
         <v>3252188</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3239280</v>
+        <v>3238770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3261901</v>
+        <v>3261522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9911926513674145</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9872583536941854</v>
+        <v>0.9871031271885107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9941528425523524</v>
+        <v>0.9940374566400269</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4051</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11020</v>
+        <v>11426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007347360278134591</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001935179169316301</v>
+        <v>0.001925895438525742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01998591127784104</v>
+        <v>0.02072064626659333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>4965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1974</v>
+        <v>1962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10914</v>
+        <v>10886</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01042110150831481</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004143463198853401</v>
+        <v>0.004119020197408967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02290825677346858</v>
+        <v>0.0228492989489033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>9016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3979</v>
+        <v>4044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17895</v>
+        <v>17726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008772090969757802</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003871501035258113</v>
+        <v>0.003934665287450696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0174101967976542</v>
+        <v>0.01724646035333771</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>547357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540388</v>
+        <v>539982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>550341</v>
+        <v>550346</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9926526397218655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9800140887221589</v>
+        <v>0.9792793537334065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980648208306837</v>
+        <v>0.9980741045614743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>447</v>
@@ -1270,19 +1270,19 @@
         <v>471447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465498</v>
+        <v>465526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>474438</v>
+        <v>474450</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9895788984916852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9770917432265313</v>
+        <v>0.9771507010510969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9958565368011466</v>
+        <v>0.995880979802591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>971</v>
@@ -1291,19 +1291,19 @@
         <v>1018804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1009925</v>
+        <v>1010094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1023841</v>
+        <v>1023776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9912279090302422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9825898032023458</v>
+        <v>0.9827535396466623</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961284989647419</v>
+        <v>0.9960653347125493</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>50714</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0154779089904101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1416,19 +1416,19 @@
         <v>56019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01657752320685429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -1437,19 +1437,19 @@
         <v>106733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01603619598013469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3225829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3210042</v>
+        <v>3208701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3238574</v>
+        <v>3238357</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9845220910095899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9797040148945682</v>
+        <v>0.9792947243819218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9884118449048527</v>
+        <v>0.9883456387958707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3243</v>
@@ -1487,19 +1487,19 @@
         <v>3323178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3306440</v>
+        <v>3307445</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3335922</v>
+        <v>3336017</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9834224767931458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9784692756511651</v>
+        <v>0.9787665133212117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9871937251572447</v>
+        <v>0.9872217682478264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6407</v>
@@ -1508,19 +1508,19 @@
         <v>6549008</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6525693</v>
+        <v>6525595</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6568038</v>
+        <v>6567666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9839638040198653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9804607582091717</v>
+        <v>0.9804460413162313</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9868229763477762</v>
+        <v>0.9867670884587489</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>21157</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13150</v>
+        <v>12407</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33131</v>
+        <v>32290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02170792909946151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01349182618127972</v>
+        <v>0.01272949948192055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0339930016340705</v>
+        <v>0.03313039657961336</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -1872,19 +1872,19 @@
         <v>31859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22277</v>
+        <v>21225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45181</v>
+        <v>43287</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02381432722132139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01665208974675594</v>
+        <v>0.0158653262684346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03377287432262871</v>
+        <v>0.03235727763632675</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -1893,19 +1893,19 @@
         <v>53016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39798</v>
+        <v>39541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70780</v>
+        <v>70247</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02292652619720434</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01721022007520569</v>
+        <v>0.01709909872758951</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03060840949431377</v>
+        <v>0.03037785334979068</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>953486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941512</v>
+        <v>942353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>961493</v>
+        <v>962236</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9782920709005385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9660069983659295</v>
+        <v>0.9668696034203865</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9865081738187202</v>
+        <v>0.9872705005180794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1216</v>
@@ -1943,19 +1943,19 @@
         <v>1305938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1292616</v>
+        <v>1294510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1315520</v>
+        <v>1316572</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9761856727786786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9662271256773713</v>
+        <v>0.9676427223636732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9833479102532441</v>
+        <v>0.9841346737315654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2105</v>
@@ -1964,19 +1964,19 @@
         <v>2259424</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2241660</v>
+        <v>2242193</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2272642</v>
+        <v>2272899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9770734738027956</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9693915905056855</v>
+        <v>0.9696221466502088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9827897799247942</v>
+        <v>0.9829009012724104</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>29485</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20355</v>
+        <v>19520</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42699</v>
+        <v>41562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01501295615276171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01036444037164372</v>
+        <v>0.009938963145116012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02174140772791071</v>
+        <v>0.02116249751524163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2089,19 +2089,19 @@
         <v>29523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19862</v>
+        <v>19245</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42257</v>
+        <v>43985</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0167955002229246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01129925135825433</v>
+        <v>0.01094839548586274</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02403946159478195</v>
+        <v>0.02502289623690558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2110,19 +2110,19 @@
         <v>59008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44331</v>
+        <v>45382</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76866</v>
+        <v>77516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01585485908355425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0119112911876561</v>
+        <v>0.01219368388763682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.020653019888446</v>
+        <v>0.02082785907208059</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1934472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1921258</v>
+        <v>1922395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1943602</v>
+        <v>1944437</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9849870438472383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9782585922720902</v>
+        <v>0.9788375024847584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9896355596283564</v>
+        <v>0.9900610368548842</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1609</v>
@@ -2160,19 +2160,19 @@
         <v>1728280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1715546</v>
+        <v>1713818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1737941</v>
+        <v>1738558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9832044997770754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.975960538405218</v>
+        <v>0.9749771037630944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9887007486417457</v>
+        <v>0.9890516045141372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3437</v>
@@ -2181,19 +2181,19 @@
         <v>3662752</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3644894</v>
+        <v>3644244</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3677429</v>
+        <v>3676378</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9841451409164458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.979346980111554</v>
+        <v>0.9791721409279198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9880887088123439</v>
+        <v>0.9878063161123631</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>7050</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2153</v>
+        <v>2086</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16121</v>
+        <v>16667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.014650608839554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004475425956921937</v>
+        <v>0.004335458362002081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03350217615956443</v>
+        <v>0.03463728287646404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2306,19 +2306,19 @@
         <v>15460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8955</v>
+        <v>8490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26272</v>
+        <v>26206</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03370858961004201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01952544144518918</v>
+        <v>0.01851237394912983</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05728449190406344</v>
+        <v>0.05713968830080066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2327,19 +2327,19 @@
         <v>22509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13635</v>
+        <v>13574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34971</v>
+        <v>35017</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02395095567847236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01450802498749308</v>
+        <v>0.01444326566982073</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03721016812307155</v>
+        <v>0.03725903940901123</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>474131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465060</v>
+        <v>464514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479028</v>
+        <v>479095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.985349391160446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9664978238404355</v>
+        <v>0.9653627171235359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995524574043078</v>
+        <v>0.9956645416379979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>399</v>
@@ -2377,19 +2377,19 @@
         <v>443171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>432359</v>
+        <v>432425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>449676</v>
+        <v>450141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.966291410389958</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9427155080959365</v>
+        <v>0.9428603116991993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9804745585548108</v>
+        <v>0.9814876260508701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>832</v>
@@ -2398,19 +2398,19 @@
         <v>917304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>904842</v>
+        <v>904796</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>926178</v>
+        <v>926239</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9760490443215276</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9627898318769282</v>
+        <v>0.9627409605909882</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854919750125067</v>
+        <v>0.9855567343301787</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>57692</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42218</v>
+        <v>42939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74808</v>
+        <v>74222</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01687004940115469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01234516456615176</v>
+        <v>0.01255596940908251</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02187501332965622</v>
+        <v>0.02170359576210175</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -2523,19 +2523,19 @@
         <v>76842</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59670</v>
+        <v>59654</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97324</v>
+        <v>97463</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02161978837514133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01678833339482708</v>
+        <v>0.01678392522727842</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0273826343000038</v>
+        <v>0.02742176076048794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -2544,19 +2544,19 @@
         <v>134534</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112755</v>
+        <v>111514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>162525</v>
+        <v>162741</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01929070279119889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01616788226011403</v>
+        <v>0.01599000553844195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02330438144278832</v>
+        <v>0.02333528795792904</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3362090</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3344974</v>
+        <v>3345560</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3377564</v>
+        <v>3376843</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831299505988453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9781249866703438</v>
+        <v>0.9782964042378982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9876548354338482</v>
+        <v>0.9874440305909175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3224</v>
@@ -2594,19 +2594,19 @@
         <v>3477388</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3456906</v>
+        <v>3456767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3494560</v>
+        <v>3494576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9783802116248587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.972617365699996</v>
+        <v>0.972578239239512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9832116666051729</v>
+        <v>0.9832160747727212</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6374</v>
@@ -2615,19 +2615,19 @@
         <v>6839478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6811487</v>
+        <v>6811271</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6861257</v>
+        <v>6862498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9807092972088011</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9766956185572118</v>
+        <v>0.9766647120420711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9838321177398863</v>
+        <v>0.9840099944615581</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>12197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6400</v>
+        <v>6076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20701</v>
+        <v>21766</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01616915812244198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008484287924569124</v>
+        <v>0.008054013418430855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02744214598945406</v>
+        <v>0.02885426460018335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -2979,19 +2979,19 @@
         <v>15993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8428</v>
+        <v>8491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27297</v>
+        <v>25715</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01607915339653283</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008472926146777341</v>
+        <v>0.00853629790020091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02744356959333166</v>
+        <v>0.02585343950208827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -3000,19 +3000,19 @@
         <v>28190</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18501</v>
+        <v>18638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42046</v>
+        <v>40818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01611797243893553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01057794083924161</v>
+        <v>0.01065620413899431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02404006248176368</v>
+        <v>0.02333809226717316</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>742150</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>733646</v>
+        <v>732581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>747947</v>
+        <v>748271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.983830841877558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9725578540105458</v>
+        <v>0.9711457353998164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9915157120754309</v>
+        <v>0.9919459865815691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>879</v>
@@ -3050,19 +3050,19 @@
         <v>978667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>967363</v>
+        <v>968945</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>986232</v>
+        <v>986169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9839208466034671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9725564304066684</v>
+        <v>0.9741465604979117</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9915270738532227</v>
+        <v>0.9914637020997991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1630</v>
@@ -3071,19 +3071,19 @@
         <v>1720817</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1706961</v>
+        <v>1708189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1730506</v>
+        <v>1730369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9838820275610645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9759599375182364</v>
+        <v>0.9766619077328269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9894220591607584</v>
+        <v>0.9893437958610057</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>18518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10468</v>
+        <v>11034</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30676</v>
+        <v>31557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008918274193442112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005041478946118645</v>
+        <v>0.005314205686273513</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01477375066279426</v>
+        <v>0.01519816654707012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3196,19 +3196,19 @@
         <v>19809</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12367</v>
+        <v>12365</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29984</v>
+        <v>29465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009962561713039594</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006219726541761951</v>
+        <v>0.006218645689362289</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01508022892652287</v>
+        <v>0.01481914878480767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -3217,19 +3217,19 @@
         <v>38326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26857</v>
+        <v>28199</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52407</v>
+        <v>53274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009429102689970844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006607284634201357</v>
+        <v>0.006937550713766147</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01289318915499734</v>
+        <v>0.01310646393356002</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2057867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2045709</v>
+        <v>2044828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2065917</v>
+        <v>2065351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9910817258065578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9852262493372058</v>
+        <v>0.9848018334529298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9949585210538814</v>
+        <v>0.9946857943137265</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1888</v>
@@ -3267,19 +3267,19 @@
         <v>1968491</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1958316</v>
+        <v>1958835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1975933</v>
+        <v>1975935</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9900374382869604</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9849197710734772</v>
+        <v>0.9851808512151924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9937802734582381</v>
+        <v>0.9937813543106377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3825</v>
@@ -3288,19 +3288,19 @@
         <v>4026359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4012278</v>
+        <v>4011411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4037828</v>
+        <v>4036486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9905708973100291</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9871068108450034</v>
+        <v>0.9868935360664394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9933927153657989</v>
+        <v>0.9930624492862337</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>3737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9098</v>
+        <v>8924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006833417123912808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001753159322431683</v>
+        <v>0.00172020328557871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01663645098773139</v>
+        <v>0.01631755693325873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6796</v>
+        <v>6316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003496143742907083</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01237601604594203</v>
+        <v>0.01150190370655065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3434,19 +3434,19 @@
         <v>5657</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1958</v>
+        <v>1979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11260</v>
+        <v>13043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005161348631512826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001786443565263397</v>
+        <v>0.001805885435805893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01027346259003359</v>
+        <v>0.01190015706415665</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>543149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>537788</v>
+        <v>537962</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545927</v>
+        <v>545945</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9931665828760872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9833635490122686</v>
+        <v>0.9836824430667414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9982468406775683</v>
+        <v>0.9982797967144214</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>524</v>
@@ -3484,7 +3484,7 @@
         <v>547220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542344</v>
+        <v>542824</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -3493,7 +3493,7 @@
         <v>0.9965038562570929</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9876239839540579</v>
+        <v>0.9884980962934506</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3505,19 +3505,19 @@
         <v>1090370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1084767</v>
+        <v>1082984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1094069</v>
+        <v>1094048</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9948386513684871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9897265374099669</v>
+        <v>0.9880998429358434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9982135564347367</v>
+        <v>0.9981941145641942</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>34452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24155</v>
+        <v>23366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49657</v>
+        <v>48398</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01020009512956107</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007151425269948389</v>
+        <v>0.006917850121032647</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0147018701239717</v>
+        <v>0.01432896034294039</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3630,19 +3630,19 @@
         <v>37722</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26844</v>
+        <v>26185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52960</v>
+        <v>52639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01067968710217792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007599944215843659</v>
+        <v>0.007413532690525719</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01499384223994068</v>
+        <v>0.01490307946981982</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -3651,19 +3651,19 @@
         <v>72174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55738</v>
+        <v>55771</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90053</v>
+        <v>91509</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01044525230650052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008066542056640376</v>
+        <v>0.00807137796084159</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01303283072375463</v>
+        <v>0.0132434576200791</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3343166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3327961</v>
+        <v>3329220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3353463</v>
+        <v>3354252</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9897999048704389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9852981298760279</v>
+        <v>0.9856710396570596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9928485747300514</v>
+        <v>0.9930821498789673</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3291</v>
@@ -3701,19 +3701,19 @@
         <v>3494378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3479140</v>
+        <v>3479461</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3505256</v>
+        <v>3505915</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9893203128978221</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9850061577600594</v>
+        <v>0.9850969205301803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9924000557841564</v>
+        <v>0.9925864673094743</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6476</v>
@@ -3722,19 +3722,19 @@
         <v>6837544</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6819665</v>
+        <v>6818209</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6853980</v>
+        <v>6853947</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9895547476934995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9869671692762454</v>
+        <v>0.9867565423799209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9919334579433596</v>
+        <v>0.9919286220391584</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>18119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11154</v>
+        <v>11705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28052</v>
+        <v>28127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03131929056099324</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01927915041867406</v>
+        <v>0.02023156695769748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04848909630646441</v>
+        <v>0.04861839452531533</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -4086,19 +4086,19 @@
         <v>50561</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40718</v>
+        <v>41052</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62119</v>
+        <v>63300</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06150710514555347</v>
+        <v>0.06150710514555346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04953276774990189</v>
+        <v>0.04993876189365627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07556730417765567</v>
+        <v>0.07700430257235635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -4107,19 +4107,19 @@
         <v>68680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57060</v>
+        <v>56263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82916</v>
+        <v>83917</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04903748733586101</v>
+        <v>0.049037487335861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04074045068352874</v>
+        <v>0.04017159037719959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0592020131672878</v>
+        <v>0.0599164466519046</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>560410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>550477</v>
+        <v>550402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>567375</v>
+        <v>566824</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9686807094390067</v>
+        <v>0.9686807094390069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9515109036935347</v>
+        <v>0.9513816054746846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9807208495813259</v>
+        <v>0.9797684330423025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1344</v>
@@ -4157,19 +4157,19 @@
         <v>771477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>759919</v>
+        <v>758738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>781320</v>
+        <v>780986</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9384928948544464</v>
+        <v>0.9384928948544465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9244326958223443</v>
+        <v>0.9229956974276433</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9504672322500982</v>
+        <v>0.9500612381063438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2014</v>
@@ -4178,19 +4178,19 @@
         <v>1331887</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1317651</v>
+        <v>1316650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1343507</v>
+        <v>1344304</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9509625126641391</v>
+        <v>0.950962512664139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9407979868327123</v>
+        <v>0.9400835533480957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9592595493164712</v>
+        <v>0.9598284096228005</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>56416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42176</v>
+        <v>41754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74791</v>
+        <v>75091</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02529206814382962</v>
+        <v>0.02529206814382961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01890839338838203</v>
+        <v>0.01871918155487325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03353012800834569</v>
+        <v>0.03366473026488456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -4303,19 +4303,19 @@
         <v>56679</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44416</v>
+        <v>44532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73224</v>
+        <v>73979</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02610276336846852</v>
+        <v>0.02610276336846851</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0204550371643681</v>
+        <v>0.02050848196686703</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03372197830147033</v>
+        <v>0.03406997331268584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -4324,19 +4324,19 @@
         <v>113095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92425</v>
+        <v>93023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134627</v>
+        <v>137369</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02569196678844892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02099634442876361</v>
+        <v>0.02113220091916005</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03058353335759002</v>
+        <v>0.03120639401519203</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2174150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2155775</v>
+        <v>2155475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2188390</v>
+        <v>2188812</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9747079318561704</v>
+        <v>0.9747079318561702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9664698719916544</v>
+        <v>0.9663352697351154</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9810916066116181</v>
+        <v>0.9812808184451267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2844</v>
@@ -4374,19 +4374,19 @@
         <v>2114713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2098168</v>
+        <v>2097413</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2126976</v>
+        <v>2126860</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9738972366315315</v>
+        <v>0.9738972366315314</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9662780216985301</v>
+        <v>0.9659300266873144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9795449628356321</v>
+        <v>0.9794915180331329</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4786</v>
@@ -4395,19 +4395,19 @@
         <v>4288864</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4267332</v>
+        <v>4264590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4309534</v>
+        <v>4308936</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9743080332115511</v>
+        <v>0.9743080332115509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.96941646664241</v>
+        <v>0.9687936059848079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9790036555712366</v>
+        <v>0.9788677990808401</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>12602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7338</v>
+        <v>6766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21138</v>
+        <v>20412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01770965537588321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01031155275506094</v>
+        <v>0.009508305136202936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02970603577621596</v>
+        <v>0.02868480269093426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -4520,19 +4520,19 @@
         <v>12977</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8089</v>
+        <v>8340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20015</v>
+        <v>19669</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01765900067987046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01100771715791149</v>
+        <v>0.01134874048556229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02723593313490209</v>
+        <v>0.02676518207933294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -4541,19 +4541,19 @@
         <v>25579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17679</v>
+        <v>17891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36138</v>
+        <v>36954</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01768392021950093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01222227523382465</v>
+        <v>0.0123687447247421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02498349973923128</v>
+        <v>0.02554777850177583</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>698985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>690449</v>
+        <v>691175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704249</v>
+        <v>704821</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9822903446241168</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.970293964223784</v>
+        <v>0.9713151973090658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9896884472449391</v>
+        <v>0.9904916948637972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>983</v>
@@ -4591,19 +4591,19 @@
         <v>721900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714862</v>
+        <v>715208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>726788</v>
+        <v>726537</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9823409993201294</v>
+        <v>0.9823409993201295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.972764066865098</v>
+        <v>0.973234817920667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9889922828420886</v>
+        <v>0.9886512595144378</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1650</v>
@@ -4612,19 +4612,19 @@
         <v>1420885</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1410326</v>
+        <v>1409510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1428785</v>
+        <v>1428573</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9823160797804992</v>
+        <v>0.9823160797804991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9750165002607689</v>
+        <v>0.9744522214982243</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9877777247661759</v>
+        <v>0.987631255275258</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>87137</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68430</v>
+        <v>69573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107400</v>
+        <v>108792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0247499513682088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01943668556551411</v>
+        <v>0.01976113538184352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03050545134105195</v>
+        <v>0.03090095473316198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -4737,19 +4737,19 @@
         <v>120218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103758</v>
+        <v>102361</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140559</v>
+        <v>140530</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03224458014218568</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02782984538526652</v>
+        <v>0.02745500990505909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03770058015057615</v>
+        <v>0.03769273469102404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -4758,19 +4758,19 @@
         <v>207354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180711</v>
+        <v>183047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232890</v>
+        <v>237365</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0286045957685901</v>
+        <v>0.02860459576859011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02492918526730225</v>
+        <v>0.02525134764269555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03212730257274359</v>
+        <v>0.03274453379802023</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3433546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3413283</v>
+        <v>3411891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3452253</v>
+        <v>3451110</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9752500486317912</v>
+        <v>0.9752500486317913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9694945486589481</v>
+        <v>0.9690990452668379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9805633144344862</v>
+        <v>0.9802388646181565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5171</v>
@@ -4808,19 +4808,19 @@
         <v>3608089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3587748</v>
+        <v>3587777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3624549</v>
+        <v>3625946</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9677554198578144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9622994198494238</v>
+        <v>0.9623072653089759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9721701546147338</v>
+        <v>0.9725449900949412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8450</v>
@@ -4829,19 +4829,19 @@
         <v>7041636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7016100</v>
+        <v>7011625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7068279</v>
+        <v>7065943</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9713954042314098</v>
+        <v>0.97139540423141</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9678726974272562</v>
+        <v>0.9672554662019799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9750708147326976</v>
+        <v>0.9747486523573046</v>
       </c>
     </row>
     <row r="15">
